--- a/biology/Médecine/Antibiotique_à_large_spectre/Antibiotique_à_large_spectre.xlsx
+++ b/biology/Médecine/Antibiotique_à_large_spectre/Antibiotique_à_large_spectre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Antibiotique_%C3%A0_large_spectre</t>
+          <t>Antibiotique_à_large_spectre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un antibiotique à large spectre est un antibiotique efficace contre un grand nombre de bactéries. Le spectre d'activité de l'antibiotique définit l’ensemble des germes sensibles à chaque famille d’antibiotiques[1], plus il est large, plus le nombre de bactéries sensibles à cet antibiotique est élevé, à l'inverse d'un antibiotique à spectre étroit qui aura une action sur un petit nombre de bactéries, plus ciblées. L'un des inconvénients de l'utilisation d'antibiotique à large spectre est l'augmentation du risque de développement de l'antibiorésistance et la destruction d'un grand nombre de bactéries non pathogènes dont le microbiote.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un antibiotique à large spectre est un antibiotique efficace contre un grand nombre de bactéries. Le spectre d'activité de l'antibiotique définit l’ensemble des germes sensibles à chaque famille d’antibiotiques, plus il est large, plus le nombre de bactéries sensibles à cet antibiotique est élevé, à l'inverse d'un antibiotique à spectre étroit qui aura une action sur un petit nombre de bactéries, plus ciblées. L'un des inconvénients de l'utilisation d'antibiotique à large spectre est l'augmentation du risque de développement de l'antibiorésistance et la destruction d'un grand nombre de bactéries non pathogènes dont le microbiote.
 L'exemple type de l'antibiotique à large spectre est la pénicilline.
 </t>
         </is>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Antibiotique_%C3%A0_large_spectre</t>
+          <t>Antibiotique_à_large_spectre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,23 +526,62 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Chez les humains
-Doxycycline
+          <t>Chez les humains</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Doxycycline
 Pénicilline
 Minocycline
 Aminoglycosides (excepté la streptomycine)
 Ampicilline
-Amoxicilline/acide clavulanique (Augmentin)[2]
-Azithromycine[3]
+Amoxicilline/acide clavulanique (Augmentin)
+Azithromycine
 Carbapénèmes (exemple : imipenem)
 Pipéracilline/tazobactam
 Quinolones (exemple : ciprofloxacine)
 Tétracyclines (excepté sarecycline)
 Chloramphenicol
 Ticarcilline
-Cotrimoxazole (Bactrim)
-En médecine vétérinaire
-Co-amoxiclav (petits animaux)
+Cotrimoxazole (Bactrim)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Antibiotique_à_large_spectre</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Antibiotique_%C3%A0_large_spectre</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Exemples</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>En médecine vétérinaire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Co-amoxiclav (petits animaux)
 Pénicilline, streptomycine et oxytétracycline (animaux de ferme)
 Pénicilline et sulfonamides (chez les chevaux)</t>
         </is>
